--- a/Reminder.xlsx
+++ b/Reminder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ushasree Pottluri\Documents\Reminder Notifications Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137837A4-AE8F-40B2-BD54-D8B98C48CBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192C2B2-2683-4C29-8F0E-9216616F84EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB3EB413-627B-496B-B8D8-962143A5BBB1}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Seconds</t>
   </si>
   <si>
-    <t>Current Time</t>
-  </si>
-  <si>
     <t>Difference</t>
   </si>
   <si>
@@ -58,14 +55,16 @@
   </si>
   <si>
     <t>Analyse Schedule</t>
+  </si>
+  <si>
+    <t>Make Coffee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="[ss]"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -97,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -417,175 +415,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F6DA4D-8E5C-42E8-BD06-656848753EA9}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.26953125" customWidth="1"/>
     <col min="2" max="2" width="79.453125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>0.6694444444444444</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0.47916666666666669</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:C4" ca="1" si="0">NOW()</f>
-        <v>44793.675448263886</v>
-      </c>
-      <c r="D2" s="2">
-        <f ca="1">MOD(A2-C2,1)</f>
-        <v>0.99399618055758765</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E4" ca="1" si="1">HOUR(D2)*3600 + MINUTE(D2)*60 + SECOND(D2)</f>
-        <v>85881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>0.76249999999999996</v>
+      <c r="C2" s="1">
+        <f ca="1">MOD(A2-NOW(),1)</f>
+        <v>3.9006944425636902E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D5" ca="1" si="0">HOUR(C2)*3600 + MINUTE(C2)*60 + SECOND(C2)</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0.5</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C5" ca="1" si="1">MOD(A3-NOW(),1)</f>
+        <v>2.4734027778322343E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14973402777832234</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44793.675448263886</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" ca="1" si="2">MOD(A3-C3,1)</f>
-        <v>8.7051736110879574E-2</v>
-      </c>
-      <c r="E3" s="4">
+        <v>12937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>0.80416666666666703</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
+        <v>0.19140069444256369</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44793.675448263886</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12871840278239688</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>11121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+        <v>16537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
